--- a/SuppXLS/Scen_Base_VS.xlsx
+++ b/SuppXLS/Scen_Base_VS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids_syn_5\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBF402B-65C4-403F-B61B-962760033731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{469EB775-5CF9-4881-A856-85F232496D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grids" sheetId="5" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="buildrates" sheetId="4" r:id="rId3"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId4"/>
+    <sheet name="grids" sheetId="6" r:id="rId1"/>
+    <sheet name="re_targets" sheetId="5" r:id="rId2"/>
+    <sheet name="Veda" sheetId="1" r:id="rId3"/>
+    <sheet name="buildrates" sheetId="4" r:id="rId4"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="353">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -396,6 +397,121 @@
     <t>windon</t>
   </si>
   <si>
+    <t>RE Targets from EMBER</t>
+  </si>
+  <si>
+    <t>TARGET_YEAR</t>
+  </si>
+  <si>
+    <t>FUEL_CATEGORY</t>
+  </si>
+  <si>
+    <t>METRIC</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>SOURCE_TYPE</t>
+  </si>
+  <si>
+    <t>SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>PUBLISHER</t>
+  </si>
+  <si>
+    <t>ANNOUNCEMENT_DATE</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>SOURCE_SUMMARY</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>capacity_total_gw</t>
+  </si>
+  <si>
+    <t>National strategy or plans (approved)</t>
+  </si>
+  <si>
+    <t>National Plan for Energy and Climate</t>
+  </si>
+  <si>
+    <t>Italian Ministry of the Environment and Energy Security</t>
+  </si>
+  <si>
+    <t>https://commission.europa.eu/publications/italy-final-updated-necp-2021-2030-submitted-2024_en</t>
+  </si>
+  <si>
+    <t>This report is the final submission of Italy's National Energy and Climate Plan (NECP) to the European Union Commission, submitted in July 2024. No fossil capacity data is available and there is no breakdown of fossil generation by fuel. Capacity for solar excludes 80MW of CSP in 2030, and other renewables refers to geothermal. The tracker shows data following the With Additional Measures (WAM) scenario.</t>
+  </si>
+  <si>
+    <t>Data is taken from the Europe team's NECP tracker data.
+Table 11</t>
+  </si>
+  <si>
+    <t>Bioenergy</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Other Renewables</t>
+  </si>
+  <si>
+    <t>Pumped hydro</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>generation_twh</t>
+  </si>
+  <si>
+    <t>Fossil</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>share_of_generation_pct</t>
+  </si>
+  <si>
+    <t>Renewables</t>
+  </si>
+  <si>
+    <t>Undergoing legislative process</t>
+  </si>
+  <si>
+    <t>NATIONAL PLAN INTEGRATED FOR ENERGY AND CLIMATE</t>
+  </si>
+  <si>
+    <t>Directorate-General for Communication | Directorate-General for Energy</t>
+  </si>
+  <si>
+    <t>https://commission.europa.eu/publications/italy-draft-updated-necp-2021-2030_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the EU Regulation on the governance of energy union and climate action (EU 2018/21999), adopted in 2019 as part of the Clean Energy for All Europeans Package, all EU countries must submit 10-year national energy and climate plans (NECPs) to outline how they intend to meet the EU energy and climate targets for 2030. In line with Article 14 of the Governance Regulation, EU member countries were required to submit their draft updated NECPS to the EU Commission. Italy submitted the updated draft in July 2023. </t>
+  </si>
+  <si>
+    <t>The share of generation figures have been calculated by using the "denominator" figure on page. 78</t>
+  </si>
+  <si>
     <t>BUILD RATE ASSUMPTIONS</t>
   </si>
   <si>
@@ -1047,6 +1163,9 @@
     <t>flo_bnd</t>
   </si>
   <si>
+    <t>stgout_bnd</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
@@ -1056,10 +1175,13 @@
     <t>ELE,DMD,PRE</t>
   </si>
   <si>
+    <t>STG</t>
+  </si>
+  <si>
     <t>Trd_electricity import</t>
   </si>
   <si>
-    <t>e_IT3-380,e_IT39-220,e_IT60-400,e_w102675884-220,e_w103127417-220,e_w103653567-225,e_w104114052-220,e_w105462289-220,e_w159821869-220,e_w41892273-220,e_w41892273-400,e_w42206116-380,e_w491424937-400,e_w61038773-220,e_w72466334-380,e_w72570378-380,e_w98787157-220</t>
+    <t>e_dem1,e_dem3</t>
   </si>
   <si>
     <t>Trd_electricity export</t>
@@ -1198,7 +1320,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1211,6 +1333,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
@@ -1548,54 +1674,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2870E014-13A3-45C4-9683-C94B3A6C14CD}">
-  <dimension ref="B2:AI93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A3A0A6-75D2-4371-ABD1-AD68BDD32367}">
+  <dimension ref="B2:AJ93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="U2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -1604,39 +1730,39 @@
         <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="R3" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="U3" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="V3" t="s">
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="X3" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AA3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH3" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" t="s">
-        <v>173</v>
-      </c>
       <c r="AI3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>87.899170999999996</v>
@@ -1648,69 +1774,72 @@
         <v>0.99880000000000002</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J4">
         <v>9.9571947495241425E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L4" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="Q4" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="R4" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U4" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V4" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="W4" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X4" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="AA4" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="AB4" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="AC4" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="AD4" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="AE4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>310</v>
+        <v>346</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>347</v>
       </c>
       <c r="AH4" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="AI4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>49.647159000000002</v>
@@ -1722,69 +1851,69 @@
         <v>0.98194000000000004</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J5">
         <v>0.2605015929749695</v>
       </c>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L5" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q5" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="R5" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U5" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V5" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="W5" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X5" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="AA5" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="AB5" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="AC5">
         <v>2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AE5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>312</v>
+      <c r="AF5" t="s">
+        <v>348</v>
       </c>
       <c r="AH5" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="AI5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>83.475161000000014</v>
@@ -1796,45 +1925,60 @@
         <v>0.99141999999999997</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J6">
         <v>0.1059673189577138</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="Q6" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="R6" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U6" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V6" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="W6" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>79.944892999999993</v>
@@ -1846,45 +1990,45 @@
         <v>0.98584000000000005</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J7">
         <v>0.23272004161032886</v>
       </c>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="Q7" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="R7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="W7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>62.561681</v>
@@ -1896,45 +2040,45 @@
         <v>0.99568000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J8">
         <v>0.2812390989617462</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L8" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="Q8" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="R8" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U8" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V8" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="W8" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>1.6981030000000001</v>
@@ -1946,45 +2090,45 @@
         <v>0.97341999999999995</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J9">
         <v>9.9571947495241425E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L9" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="Q9" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="R9" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U9" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V9" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="W9" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>8.8033219999999996</v>
@@ -1996,45 +2140,45 @@
         <v>0.97816000000000003</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="I10" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J10">
         <v>0.2605015929749695</v>
       </c>
       <c r="K10" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L10" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="Q10" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="R10" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U10" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V10" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="W10" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>85.441380999999993</v>
@@ -2046,45 +2190,45 @@
         <v>0.98943999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J11">
         <v>0.1059673189577138</v>
       </c>
       <c r="K11" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L11" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="Q11" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="R11" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U11" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V11" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="W11" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>202.25297899999998</v>
@@ -2096,45 +2240,45 @@
         <v>0.99694000000000005</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J12">
         <v>0.23272004161032886</v>
       </c>
       <c r="K12" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="Q12" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="R12" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U12" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V12" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="W12" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>14.255122999999999</v>
@@ -2146,45 +2290,45 @@
         <v>0.99550000000000005</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J13">
         <v>0.2812390989617462</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L13" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="Q13" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="R13" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U13" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V13" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="W13" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>3.4408919999999998</v>
@@ -2196,45 +2340,45 @@
         <v>0.99514000000000002</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="I14" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J14">
         <v>9.9571947495241425E-2</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L14" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="Q14" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="R14" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U14" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V14" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="W14" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2246,45 +2390,45 @@
         <v>0.99826000000000004</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J15">
         <v>0.2605015929749695</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="Q15" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="R15" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U15" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V15" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="W15" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2296,45 +2440,45 @@
         <v>0.99153999999999998</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="I16" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J16">
         <v>0.1059673189577138</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="Q16" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="R16" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U16" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V16" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="W16" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X16" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2346,45 +2490,45 @@
         <v>0.99580000000000002</v>
       </c>
       <c r="H17" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J17">
         <v>0.23272004161032886</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="Q17" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="R17" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V17" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="W17" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X17" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2396,45 +2540,45 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J18">
         <v>0.2812390989617462</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="Q18" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="R18" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U18" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V18" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="W18" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C19">
         <v>1.6981030000000001</v>
@@ -2446,45 +2590,45 @@
         <v>0.98914000000000002</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J19">
         <v>9.9571947495241425E-2</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="Q19" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="R19" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U19" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V19" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="W19" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X19" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2496,45 +2640,45 @@
         <v>0.99417999999999995</v>
       </c>
       <c r="H20" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J20">
         <v>0.2605015929749695</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="Q20" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="R20" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U20" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V20" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="W20" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2546,45 +2690,45 @@
         <v>0.99795999999999996</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J21">
         <v>0.1059673189577138</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="Q21" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="R21" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U21" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V21" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="W21" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C22">
         <v>19.438808000000002</v>
@@ -2596,45 +2740,45 @@
         <v>0.98872000000000004</v>
       </c>
       <c r="H22" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J22">
         <v>0.23272004161032886</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="Q22" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="R22" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U22" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V22" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="W22" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2646,45 +2790,45 @@
         <v>0.99202000000000001</v>
       </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="J23">
         <v>0.2812390989617462</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="Q23" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="R23" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="U23" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V23" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C24">
         <v>13.584821</v>
@@ -2696,21 +2840,21 @@
         <v>0.99070000000000003</v>
       </c>
       <c r="U24" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V24" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X24" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>0.98311199999999999</v>
@@ -2722,21 +2866,21 @@
         <v>0.99802000000000002</v>
       </c>
       <c r="U25" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V25" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X25" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>14.121065</v>
@@ -2748,21 +2892,21 @@
         <v>0.99370000000000003</v>
       </c>
       <c r="U26" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V26" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="W26" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X26" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2774,21 +2918,21 @@
         <v>0.99621999999999999</v>
       </c>
       <c r="U27" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V27" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="W27" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2800,21 +2944,21 @@
         <v>0.99856</v>
       </c>
       <c r="U28" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V28" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="W28" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X28" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2826,21 +2970,21 @@
         <v>0.99694000000000005</v>
       </c>
       <c r="U29" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V29" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="W29" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X29" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C30">
         <v>1.6981030000000001</v>
@@ -2852,21 +2996,21 @@
         <v>0.99124000000000001</v>
       </c>
       <c r="U30" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V30" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="W30" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X30" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C31">
         <v>1.6981030000000001</v>
@@ -2878,21 +3022,21 @@
         <v>0.98860000000000003</v>
       </c>
       <c r="U31" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V31" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="W31" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X31" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>5.094309</v>
@@ -2904,21 +3048,21 @@
         <v>0.99058000000000002</v>
       </c>
       <c r="U32" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V32" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="W32" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X32" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2930,21 +3074,21 @@
         <v>0.98968</v>
       </c>
       <c r="U33" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V33" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="W33" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X33" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>3.4408919999999998</v>
@@ -2956,21 +3100,21 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="U34" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V34" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="W34" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X34" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>18.679133</v>
@@ -2982,21 +3126,21 @@
         <v>0.99687999999999999</v>
       </c>
       <c r="U35" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V35" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="W35" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X35" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3008,21 +3152,21 @@
         <v>0.99651999999999996</v>
       </c>
       <c r="U36" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V36" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="W36" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X36" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C37">
         <v>6.7924120000000006</v>
@@ -3034,21 +3178,21 @@
         <v>0.98782000000000003</v>
       </c>
       <c r="U37" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V37" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="W37" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X37" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C38">
         <v>3.3962060000000003</v>
@@ -3060,21 +3204,21 @@
         <v>0.98524</v>
       </c>
       <c r="U38" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V38" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="W38" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X38" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3086,21 +3230,21 @@
         <v>0.99184000000000005</v>
       </c>
       <c r="U39" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V39" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="W39" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X39" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3112,21 +3256,21 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="U40" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V40" t="s">
+        <v>285</v>
+      </c>
+      <c r="W40" t="s">
+        <v>275</v>
+      </c>
+      <c r="X40" t="s">
         <v>247</v>
-      </c>
-      <c r="W40" t="s">
-        <v>237</v>
-      </c>
-      <c r="X40" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3138,21 +3282,21 @@
         <v>0.98643999999999998</v>
       </c>
       <c r="U41" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V41" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="W41" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X41" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3164,21 +3308,21 @@
         <v>0.98740000000000006</v>
       </c>
       <c r="U42" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V42" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="W42" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X42" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3190,21 +3334,21 @@
         <v>0.99184000000000005</v>
       </c>
       <c r="U43" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V43" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="W43" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X43" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3216,21 +3360,21 @@
         <v>0.99375999999999998</v>
       </c>
       <c r="U44" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V44" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="W44" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X44" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3242,21 +3386,21 @@
         <v>0.99148000000000003</v>
       </c>
       <c r="U45" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V45" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="W45" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X45" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3268,21 +3412,21 @@
         <v>0.99256</v>
       </c>
       <c r="U46" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V46" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="W46" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X46" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3294,21 +3438,21 @@
         <v>0.98692000000000002</v>
       </c>
       <c r="U47" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V47" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="W47" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X47" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3320,21 +3464,21 @@
         <v>0.99256</v>
       </c>
       <c r="U48" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V48" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="W48" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X48" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3346,21 +3490,21 @@
         <v>0.99165999999999999</v>
       </c>
       <c r="U49" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V49" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="W49" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X49" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3372,21 +3516,21 @@
         <v>0.98692000000000002</v>
       </c>
       <c r="U50" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V50" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="W50" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X50" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3398,21 +3542,21 @@
         <v>0.99268000000000001</v>
       </c>
       <c r="U51" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V51" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="W51" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X51" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3424,21 +3568,21 @@
         <v>0.99075999999999997</v>
       </c>
       <c r="U52" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V52" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="W52" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X52" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3450,21 +3594,21 @@
         <v>0.99334</v>
       </c>
       <c r="U53" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V53" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="W53" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X53" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3476,21 +3620,21 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="U54" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V54" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="W54" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X54" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3502,21 +3646,21 @@
         <v>0.99112</v>
       </c>
       <c r="U55" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V55" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="W55" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X55" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3528,21 +3672,21 @@
         <v>0.99339999999999995</v>
       </c>
       <c r="U56" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V56" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="W56" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X56" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3554,21 +3698,21 @@
         <v>0.99328000000000005</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V57" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="W57" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X57" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3580,21 +3724,21 @@
         <v>0.99172000000000005</v>
       </c>
       <c r="U58" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V58" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="W58" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X58" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3606,21 +3750,21 @@
         <v>0.98709999999999998</v>
       </c>
       <c r="U59" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V59" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="W59" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X59" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3632,21 +3776,21 @@
         <v>0.99597999999999998</v>
       </c>
       <c r="U60" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V60" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="W60" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X60" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3658,21 +3802,21 @@
         <v>0.99141999999999997</v>
       </c>
       <c r="U61" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V61" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="W61" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X61" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C62">
         <v>1.6981030000000001</v>
@@ -3684,21 +3828,21 @@
         <v>0.98806000000000005</v>
       </c>
       <c r="U62" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V62" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="W62" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X62" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C63">
         <v>3.3962060000000003</v>
@@ -3710,21 +3854,21 @@
         <v>0.9889</v>
       </c>
       <c r="U63" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V63" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="W63" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X63" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3736,21 +3880,21 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="U64" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V64" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="W64" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X64" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3762,21 +3906,21 @@
         <v>0.99334</v>
       </c>
       <c r="U65" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V65" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="W65" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X65" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3788,21 +3932,21 @@
         <v>0.9919</v>
       </c>
       <c r="U66" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V66" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="W66" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X66" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3814,21 +3958,21 @@
         <v>0.99885999999999997</v>
       </c>
       <c r="U67" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V67" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="W67" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X67" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3840,21 +3984,21 @@
         <v>0.99892000000000003</v>
       </c>
       <c r="U68" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V68" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="W68" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X68" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="C69">
         <v>5.8539859999999999</v>
@@ -3866,21 +4010,21 @@
         <v>0.99460000000000004</v>
       </c>
       <c r="U69" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V69" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="W69" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X69" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3892,21 +4036,21 @@
         <v>0.99892000000000003</v>
       </c>
       <c r="U70" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V70" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="W70" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X70" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3918,21 +4062,21 @@
         <v>0.99268000000000001</v>
       </c>
       <c r="U71" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V71" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="W71" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X71" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3944,21 +4088,21 @@
         <v>0.98980000000000001</v>
       </c>
       <c r="U72" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V72" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="W72" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X72" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3970,21 +4114,21 @@
         <v>0.99243999999999999</v>
       </c>
       <c r="U73" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V73" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="W73" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X73" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3996,21 +4140,21 @@
         <v>0.99526000000000003</v>
       </c>
       <c r="U74" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V74" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="W74" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X74" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C75">
         <v>3.3962060000000003</v>
@@ -4022,21 +4166,21 @@
         <v>0.99117999999999995</v>
       </c>
       <c r="U75" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V75" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="W75" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X75" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4048,21 +4192,21 @@
         <v>0.99597999999999998</v>
       </c>
       <c r="U76" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V76" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="W76" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X76" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4074,21 +4218,21 @@
         <v>0.99778</v>
       </c>
       <c r="U77" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V77" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="W77" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X77" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4100,21 +4244,21 @@
         <v>0.99316000000000004</v>
       </c>
       <c r="U78" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V78" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="W78" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X78" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -4126,212 +4270,212 @@
         <v>0.99778</v>
       </c>
       <c r="U79" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V79" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="W79" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X79" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="U80" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V80" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="W80" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X80" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U81" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V81" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="W81" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X81" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U82" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V82" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="W82" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X82" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U83" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V83" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="W83" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X83" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U84" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V84" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="W84" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X84" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U85" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V85" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="W85" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="X85" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U86" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V86" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="W86" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X86" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U87" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V87" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="W87" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="X87" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U88" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V88" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="W88" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X88" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U89" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V89" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="W89" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="X89" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U90" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V90" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="W90" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X90" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U91" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V91" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="W91" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="X91" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U92" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V92" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="W92" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X92" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="21:24" x14ac:dyDescent="0.25">
       <c r="U93" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="V93" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="W93" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X93" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4340,6 +4484,1211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAE3414-7A4B-4559-B460-C739F0EC197B}">
+  <dimension ref="B9:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2030</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2030</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>3.24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2030</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>19.41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2030</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>2.1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2030</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>26.04</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2030</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2030</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2030</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>79.17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2030</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19">
+        <v>10.9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2030</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2030</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21">
+        <v>46.9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22">
+        <v>7.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2030</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23">
+        <v>97.6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J23" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2030</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24">
+        <v>64.8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2030</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25">
+        <v>3.29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2030</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26">
+        <v>31.35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2030</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27">
+        <v>14.14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J27" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2030</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J28" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2030</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2030</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>29.42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31">
+        <v>19.54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J31" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2030</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32">
+        <v>3.05</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2030</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="F33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2030</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34">
+        <v>2.1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J34" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2030</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35">
+        <v>26.04</v>
+      </c>
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2030</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J36" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" t="s">
+        <v>126</v>
+      </c>
+      <c r="L36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2030</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37">
+        <v>79.92</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J37" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37" t="s">
+        <v>126</v>
+      </c>
+      <c r="L37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2030</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38">
+        <v>9.6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" t="s">
+        <v>126</v>
+      </c>
+      <c r="L38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2030</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39">
+        <v>46.9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2030</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J40" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" t="s">
+        <v>126</v>
+      </c>
+      <c r="L40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2030</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41">
+        <v>99.1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J41" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" t="s">
+        <v>126</v>
+      </c>
+      <c r="L41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2030</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" t="s">
+        <v>126</v>
+      </c>
+      <c r="L42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2030</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="12">
+        <v>45108</v>
+      </c>
+      <c r="J43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" t="s">
+        <v>126</v>
+      </c>
+      <c r="L43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
@@ -5068,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
@@ -5092,12 +6441,12 @@
   <sheetData>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -5126,7 +6475,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -5314,7 +6663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D697"/>
   <sheetViews>
